--- a/Data Analysis Projects/Economic Data Analysis/Economic Data Analysis.xlsx
+++ b/Data Analysis Projects/Economic Data Analysis/Economic Data Analysis.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eze\Desktop\DATA HUB\Data Analysis\Data Analysis Projects\Economic Data Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9289491-4367-44AE-B02A-71F165E1C657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188693A3-7125-4F52-A219-351C95B32790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="GJtCAEkUGfe5X1LcsThmom3MmM2jBXM79m7BDJWEEn7lYBeVWrtK62Q5wi6Y8RGCYzgj0OAGFawygNQWTbyAfg==" workbookSaltValue="x1sYceWM2L5cBtz66WcQLw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7A46AA18-64BC-48F4-B157-4FB1CD8790CC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{7A46AA18-64BC-48F4-B157-4FB1CD8790CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Required Data" sheetId="1" r:id="rId1"/>
@@ -9446,7 +9446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D047EDDC-F532-41FF-8A62-2AB43D68B2EA}">
   <dimension ref="A1:X22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -13861,8 +13861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F57CEA0E-7F77-4C37-ADC2-ECDF31FBF40B}">
   <dimension ref="A1:U124"/>
   <sheetViews>
-    <sheetView topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="C127" sqref="C127"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15166,7 +15166,6 @@
       <c r="B124" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="YI8DlZxXQuY/ntGwODRheyr/O2WALP/pUNigy0/JjAgKY18TcuVAYwBBBujeqH7Ll4o9QLD3sJep9xS+M1/0IA==" saltValue="dhRe/btwK44hhFUNWPquwQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
